--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15884.03728584355</v>
+        <v>-24188.93249349782</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448288</v>
+        <v>11715962.26448287</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3093849.912446495</v>
+        <v>3093849.912446494</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>245.9106776616436</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>36.25713864606406</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426385</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043568</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>20.73297797415439</v>
       </c>
       <c r="C13" t="n">
-        <v>120.217502312995</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.7239781807265</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>319.2396753847555</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426385</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>2.916448863491322</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>170.2484314711948</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>204.8426041147488</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.59710121399231</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.9729252669621</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>116.1663075101581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>3.008008304820971</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>128.9395398500424</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2213,7 +2213,7 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731035</v>
       </c>
       <c r="U21" t="n">
         <v>174.5071388043578</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>64.6523414575388</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.92742596576343</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>174.9994365951942</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>315.1723433222095</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.79852016673944</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,7 +2493,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>142.1379205199115</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>352.7693069597021</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>175.4882434349932</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2693,7 +2693,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
         <v>183.4695267241379</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2484314711946</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>17.73418203654922</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>204.8426041147488</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>347.3207662723223</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306973</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.6519425954195</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.033780699103757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>347.3207662723232</v>
+        <v>293.2624659405022</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>167.8191401812165</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.03378069910375</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>232.0470401519407</v>
+        <v>15.28594309434416</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>60.27679826124192</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>79.82353686950954</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>109.5540470185019</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>152.7710428245579</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>50.88599776788281</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>130.0550729486532</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>327.5355720297579</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>161.9867377377343</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.81179447522076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>224.2859784939131</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>109.5540470185018</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>152.1405710560103</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>40.81179447522076</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884.8517156860543</v>
+        <v>921.4750880558159</v>
       </c>
       <c r="C11" t="n">
-        <v>446.7092428694776</v>
+        <v>483.3326152392393</v>
       </c>
       <c r="D11" t="n">
         <v>446.7092428694776</v>
@@ -5032,22 +5032,22 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5056,37 +5056,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.244257596361</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1552.388803007394</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X11" t="n">
-        <v>1133.246339586704</v>
+        <v>921.4750880558159</v>
       </c>
       <c r="Y11" t="n">
-        <v>1133.246339586704</v>
+        <v>921.4750880558159</v>
       </c>
     </row>
     <row r="12">
@@ -5099,58 +5099,58 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U12" t="n">
         <v>1329.66869333286</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.6383720671315</v>
+        <v>724.29078252242</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895474</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="T13" t="n">
-        <v>647.4124989156882</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="U13" t="n">
-        <v>647.4124989156882</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="V13" t="n">
-        <v>360.4569907861186</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="W13" t="n">
-        <v>360.4569907861186</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="X13" t="n">
-        <v>360.4569907861186</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.4569907861186</v>
+        <v>745.2331845165154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1170.282040260528</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C14" t="n">
-        <v>1170.282040260528</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D14" t="n">
-        <v>1170.282040260528</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1997.710627381563</v>
+        <v>1163.937996016526</v>
       </c>
       <c r="X14" t="n">
-        <v>1578.568163960874</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="Y14" t="n">
-        <v>1170.282040260528</v>
+        <v>744.7955325958366</v>
       </c>
     </row>
     <row r="15">
@@ -5336,52 +5336,52 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
         <v>1632.030085633326</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
       <c r="C16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
       <c r="D16" t="n">
-        <v>1878.054933556328</v>
+        <v>50.15245949187525</v>
       </c>
       <c r="E16" t="n">
-        <v>1878.054933556328</v>
+        <v>50.15245949187525</v>
       </c>
       <c r="F16" t="n">
-        <v>1878.054933556328</v>
+        <v>50.15245949187525</v>
       </c>
       <c r="G16" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.932926354805</v>
+        <v>502.9859604199221</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.932926354805</v>
+        <v>502.9859604199221</v>
       </c>
       <c r="V16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
       <c r="W16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
       <c r="X16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
       <c r="Y16" t="n">
-        <v>2043.932926354805</v>
+        <v>216.0304522903526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>880.4839877111824</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C17" t="n">
-        <v>880.4839877111824</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D17" t="n">
-        <v>880.4839877111824</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2342.552727736634</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2130.781476205746</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2130.781476205746</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2130.781476205746</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1725.92602161678</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X17" t="n">
-        <v>1306.78355819609</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y17" t="n">
-        <v>1306.78355819609</v>
+        <v>254.1182728769838</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2202.779168087169</v>
+        <v>385.6462558642071</v>
       </c>
       <c r="C19" t="n">
-        <v>2030.217456570394</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="D19" t="n">
-        <v>1864.339463771917</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E19" t="n">
-        <v>1694.581460022654</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199223</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.327577447737</v>
+        <v>385.6462558642071</v>
       </c>
       <c r="V19" t="n">
-        <v>2360.327577447737</v>
+        <v>385.6462558642071</v>
       </c>
       <c r="W19" t="n">
-        <v>2360.327577447737</v>
+        <v>385.6462558642071</v>
       </c>
       <c r="X19" t="n">
-        <v>2360.327577447737</v>
+        <v>385.6462558642071</v>
       </c>
       <c r="Y19" t="n">
-        <v>2360.327577447737</v>
+        <v>385.6462558642071</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1785.939375850676</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.900983623584</v>
+        <v>2189.619248218046</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="21">
@@ -5810,46 +5810,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1856.314110299663</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="C22" t="n">
-        <v>1683.752398782888</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D22" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E22" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F22" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="U22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="V22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="W22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="X22" t="n">
-        <v>2275.552399704542</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="Y22" t="n">
-        <v>2048.13272901865</v>
+        <v>745.2331845165157</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>893.1979019974805</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>893.1979019974805</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>893.1979019974805</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>893.1979019974805</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
@@ -5992,49 +5992,49 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.639935903077</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.639935903077</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.497472482388</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="Y23" t="n">
-        <v>1319.497472482388</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2323.157355057091</v>
+        <v>554.2674472024742</v>
       </c>
       <c r="C25" t="n">
-        <v>2150.595643540316</v>
+        <v>381.705735685699</v>
       </c>
       <c r="D25" t="n">
-        <v>1984.717650741839</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E25" t="n">
-        <v>1814.959646992576</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F25" t="n">
-        <v>1814.959646992576</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U25" t="n">
-        <v>2360.327577447737</v>
+        <v>746.0860659214613</v>
       </c>
       <c r="V25" t="n">
-        <v>2360.327577447737</v>
+        <v>746.0860659214613</v>
       </c>
       <c r="W25" t="n">
-        <v>2360.327577447737</v>
+        <v>746.0860659214613</v>
       </c>
       <c r="X25" t="n">
-        <v>2360.327577447737</v>
+        <v>746.0860659214613</v>
       </c>
       <c r="Y25" t="n">
-        <v>2360.327577447737</v>
+        <v>746.0860659214613</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>755.070575821621</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="C26" t="n">
-        <v>316.9281030050443</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="D26" t="n">
-        <v>316.9281030050443</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T26" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1745.473006065473</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.617551476506</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X26" t="n">
-        <v>1163.356699521968</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y26" t="n">
-        <v>755.070575821621</v>
+        <v>673.2607362976727</v>
       </c>
     </row>
     <row r="27">
@@ -6284,37 +6284,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>745.233184516516</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C28" t="n">
-        <v>573.2650719193497</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3870791208724</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M28" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N28" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048584</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122815</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S28" t="n">
-        <v>745.233184516516</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T28" t="n">
-        <v>745.233184516516</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U28" t="n">
-        <v>745.233184516516</v>
+        <v>871.7464078238474</v>
       </c>
       <c r="V28" t="n">
-        <v>745.233184516516</v>
+        <v>871.7464078238474</v>
       </c>
       <c r="W28" t="n">
-        <v>745.233184516516</v>
+        <v>871.7464078238474</v>
       </c>
       <c r="X28" t="n">
-        <v>745.233184516516</v>
+        <v>871.7464078238474</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.233184516516</v>
+        <v>871.7464078238474</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
@@ -6466,10 +6466,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6487,10 +6487,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
         <v>2108.089956131646</v>
@@ -6502,13 +6502,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>662.4043965773304</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y29" t="n">
-        <v>254.1182728769838</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>365.8813363944364</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>193.3196248776613</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>193.3196248776613</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>193.3196248776613</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>193.3196248776613</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M31" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N31" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048584</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="W31" t="n">
-        <v>52.2911785177464</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="X31" t="n">
-        <v>52.2911785177464</v>
+        <v>365.8813363944364</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>365.8813363944364</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
         <v>512.3249274228017</v>
@@ -6715,10 +6715,10 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X32" t="n">
-        <v>1067.259851166298</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895474</v>
+        <v>717.0980114955062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895474</v>
+        <v>551.2200186970289</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>381.4620149477661</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="T34" t="n">
-        <v>884.5750960434898</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="U34" t="n">
-        <v>606.1884640922327</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122812</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1589.424503681217</v>
+        <v>932.3314277761586</v>
       </c>
       <c r="C35" t="n">
-        <v>1151.28203086464</v>
+        <v>932.3314277761586</v>
       </c>
       <c r="D35" t="n">
-        <v>715.3722460390845</v>
+        <v>496.4216429506031</v>
       </c>
       <c r="E35" t="n">
-        <v>281.5975011973797</v>
+        <v>62.64689810889831</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W35" t="n">
-        <v>1997.710627381563</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X35" t="n">
-        <v>1997.710627381563</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="Y35" t="n">
-        <v>1589.424503681217</v>
+        <v>932.3314277761586</v>
       </c>
     </row>
     <row r="36">
@@ -6995,37 +6995,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1860.459452821131</v>
+        <v>550.3874362516887</v>
       </c>
       <c r="C37" t="n">
-        <v>1860.459452821131</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="D37" t="n">
-        <v>1694.581460022654</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E37" t="n">
-        <v>1694.581460022654</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M37" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U37" t="n">
-        <v>2360.327577447737</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="V37" t="n">
-        <v>2360.327577447737</v>
+        <v>550.3874362516887</v>
       </c>
       <c r="W37" t="n">
-        <v>2360.327577447737</v>
+        <v>550.3874362516887</v>
       </c>
       <c r="X37" t="n">
-        <v>2279.69774222601</v>
+        <v>550.3874362516887</v>
       </c>
       <c r="Y37" t="n">
-        <v>2052.278071540119</v>
+        <v>550.3874362516887</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1893.561637177626</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>1455.41916436105</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>1019.509379535494</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>585.7346346937893</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>157.867205102997</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2165.547022991263</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1906.476331512777</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1543.859381446603</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1543.859381446603</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
         <v>335.7952991210681</v>
@@ -7262,13 +7262,13 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7292,13 +7292,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.87440598441</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>445.0716070817974</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.94094549648</v>
+        <v>889.659723012281</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>889.659723012281</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953202</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.87440598441</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.87440598441</v>
+        <v>617.6333185985725</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.033554032792</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="C41" t="n">
-        <v>916.8910812162151</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D41" t="n">
-        <v>480.9812963906596</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228017</v>
@@ -7426,10 +7426,10 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7447,16 +7447,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1355.033554032792</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="Y41" t="n">
-        <v>1355.033554032792</v>
+        <v>750.7028478467491</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.20655154895474</v>
+        <v>553.4145657975287</v>
       </c>
       <c r="C43" t="n">
-        <v>47.20655154895474</v>
+        <v>553.4145657975287</v>
       </c>
       <c r="D43" t="n">
-        <v>47.20655154895474</v>
+        <v>387.5365729990514</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="T43" t="n">
-        <v>647.412498915688</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="U43" t="n">
-        <v>647.412498915688</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="V43" t="n">
-        <v>360.4569907861185</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="W43" t="n">
-        <v>88.43058637241006</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="X43" t="n">
-        <v>88.43058637241006</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165157</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>673.2607362976727</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,49 +7651,49 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>673.2607362976727</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.20655154895474</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895474</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895474</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048584</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="T46" t="n">
-        <v>647.412498915688</v>
+        <v>502.9859604199221</v>
       </c>
       <c r="U46" t="n">
-        <v>647.412498915688</v>
+        <v>502.9859604199221</v>
       </c>
       <c r="V46" t="n">
-        <v>360.4569907861185</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="W46" t="n">
-        <v>88.43058637241006</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="X46" t="n">
-        <v>47.20655154895474</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.20655154895474</v>
+        <v>349.3086159189016</v>
       </c>
     </row>
   </sheetData>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.1258971184151</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>395.2935483312359</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>169.1674545576428</v>
       </c>
       <c r="C13" t="n">
-        <v>50.6185920886123</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>403.7130192125612</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>81.56722465832149</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.1773197201154</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69.57632038443258</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>217.1939706653099</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.46460487335868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.92750726483513</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>159.4364581215864</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>397.798891738256</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>286.01149893644</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>106.1837529440685</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24192,10 +24192,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>159.0104111541582</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>248.5893186996902</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>89.03091914113355</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.1019123650578</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>133.464845111833</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>42.7383574476155</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>239.4627953514892</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.587662930412705</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>257.8685835951952</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>217.1939706653099</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>56.88249619102078</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -24852,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>18.44182598818722</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.1116932799291</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.88249619101987</v>
+        <v>110.9407965228409</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>7.120843316644823</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>234.7909711565237</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>191.5417151429436</v>
+        <v>408.3028122005402</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>223.8091547870319</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>163.1143002504121</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>285.9536173888157</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>56.88249619102103</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>113.3332151026097</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25569,7 +25569,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25630,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.7518270944238</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>87.41546675672453</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>6.073685974035811</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.333679503812</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>199.3027768009712</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>294.6492154448413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -26040,10 +26040,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>131.9453819922635</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>202.1260426447009</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348163</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356556.3948348166</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>356556.3948348166</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="F2" t="n">
-        <v>132834.735330618</v>
+        <v>132834.7353306179</v>
       </c>
       <c r="G2" t="n">
         <v>132834.7353306179</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906759</v>
+        <v>551135.2009906756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231687</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464765.837414119</v>
+        <v>-465407.0755278941</v>
       </c>
       <c r="F6" t="n">
-        <v>86369.36357655698</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="G6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="H6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="I6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278151</v>
       </c>
       <c r="J6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278151</v>
       </c>
       <c r="K6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="L6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="M6" t="n">
-        <v>-60681.40482601454</v>
+        <v>-61322.64293978986</v>
       </c>
       <c r="N6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="O6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="P6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278154</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="L4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125708</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699067</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125708</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116988</v>
@@ -35819,16 +35819,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -35904,7 +35904,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -36056,16 +36056,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -36141,7 +36141,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -36293,16 +36293,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116988</v>
@@ -36530,16 +36530,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36688,7 +36688,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.076641276667</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,10 +36931,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37080,10 +37080,10 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37238,7 +37238,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
@@ -37250,7 +37250,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116988</v>
@@ -37478,16 +37478,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785926</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116988</v>
@@ -37715,16 +37715,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37791,10 +37791,10 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -37949,7 +37949,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
@@ -37961,7 +37961,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38113,7 +38113,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
